--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07805164449236883</v>
+        <v>3.790404871625359</v>
       </c>
       <c r="C2" t="n">
         <v>0.2635051521563917</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3460553362329423</v>
+        <v>0.09691666262756249</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08996907487495616</v>
+        <v>4.44094279658927</v>
       </c>
       <c r="C3" t="n">
         <v>0.3091771703340306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.430055741533635</v>
+        <v>0.1204419144838891</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0785925738352799</v>
+        <v>3.813364223682258</v>
       </c>
       <c r="C4" t="n">
         <v>0.2652067590512415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3487350272663172</v>
+        <v>0.09766714003575618</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09339195843625034</v>
+        <v>4.53768530850815</v>
       </c>
       <c r="C5" t="n">
         <v>0.3166553290723418</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4026146972183758</v>
+        <v>0.1127567434849371</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08774362241011427</v>
+        <v>4.223129443662492</v>
       </c>
       <c r="C6" t="n">
         <v>0.295133905522236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3890262106091146</v>
+        <v>0.1089511360157247</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0917120054128963</v>
+        <v>4.48518784066587</v>
       </c>
       <c r="C7" t="n">
         <v>0.3146733889115346</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4022541128979404</v>
+        <v>0.1126557578179833</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0897225383505128</v>
+        <v>4.428218034779374</v>
       </c>
       <c r="C8" t="n">
         <v>0.3083176151605266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4292300590774085</v>
+        <v>0.1202106728884879</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08977420457090741</v>
+        <v>4.429806522641085</v>
       </c>
       <c r="C9" t="n">
         <v>0.3084305656846729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4292315698095905</v>
+        <v>0.1202110959859115</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.557828810238707</v>
+        <v>55.98672869814153</v>
       </c>
       <c r="C10" t="n">
         <v>11.38803482836292</v>
       </c>
       <c r="D10" t="n">
-        <v>11.38811057692461</v>
+        <v>2.542454607946649</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.184805967428934</v>
+        <v>8.253913881969144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.619245177261318</v>
+        <v>0.6249393854298327</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7018094857130467</v>
+        <v>0.1979459581473959</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2330930491883389</v>
+        <v>10.15554462264369</v>
       </c>
       <c r="C12" t="n">
         <v>0.7895425315256474</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8585147489110225</v>
+        <v>0.2404366457305205</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1787701295750877</v>
+        <v>7.51736349156496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5979345918597182</v>
+        <v>0.5639885403293258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6829600631796831</v>
+        <v>0.1724421891254076</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.790404871625359</v>
+        <v>3.790404871613303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2635051521563917</v>
+        <v>0.2635051521555297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09691666262756249</v>
+        <v>0.0969166626270991</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.44094279658927</v>
+        <v>4.44094279658959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3091771703340306</v>
+        <v>0.3091771703340267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1204419144838891</v>
+        <v>0.1204419144838911</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.813364223682258</v>
+        <v>3.813364223654183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2652067590512415</v>
+        <v>0.2652067590492863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09766714003575618</v>
+        <v>0.0976671400351294</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.53768530850815</v>
+        <v>4.539468636660738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3166553290723418</v>
+        <v>0.3167696790945873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1127567434849371</v>
+        <v>0.1127831650499797</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.223129443662492</v>
+        <v>4.252340173808486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295133905522236</v>
+        <v>0.2972281321096408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1089511360157247</v>
+        <v>0.1094594542871472</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.48518784066587</v>
+        <v>4.463828221421733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3146733889115346</v>
+        <v>0.3129905066275584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1126557578179833</v>
+        <v>0.1117897260731779</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.428218034779374</v>
+        <v>4.4282180347778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3083176151605266</v>
+        <v>0.3083176151603988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1202106728884879</v>
+        <v>0.1202106728884791</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.429806522641085</v>
+        <v>4.429852253178444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3084305656846729</v>
+        <v>0.3084329796617245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1202110959859115</v>
+        <v>0.12021452761062</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.98672869814153</v>
+        <v>4.328890552922555</v>
       </c>
       <c r="C10" t="n">
-        <v>11.38803482836292</v>
+        <v>0.3799322129172439</v>
       </c>
       <c r="D10" t="n">
-        <v>2.542454607946649</v>
+        <v>0.09716680042837743</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.253913881969144</v>
+        <v>8.265368193073133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6249393854298327</v>
+        <v>0.6259069215695908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1979459581473959</v>
+        <v>0.1981710332271891</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.15554462264369</v>
+        <v>8.518098777266882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7895425315256474</v>
+        <v>0.6473977455386409</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2404366457305205</v>
+        <v>0.2037096241688686</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.51736349156496</v>
+        <v>8.569698593003306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5639885403293258</v>
+        <v>0.6535883208863547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1724421891254076</v>
+        <v>0.1928678058139135</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.265368193073133</v>
+        <v>8.269725897286039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6259069215695908</v>
+        <v>0.6262732877864481</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1981710332271891</v>
+        <v>0.198179285839301</v>
       </c>
     </row>
     <row r="12">
